--- a/경의선숲길/TM지표 변환/DTO/parking.xlsx
+++ b/경의선숲길/TM지표 변환/DTO/parking.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{648780F7-D275-4A95-A324-F6BCDE10B206}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703D0096-2283-4B9D-AEEC-9EF65E615377}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$63</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -208,23 +211,23 @@
     <t>도화 공영주차장(구)</t>
   </si>
   <si>
-    <t>주차장명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>X (N)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y (E)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,40 +236,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -274,30 +259,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -583,12 +550,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="1" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.7">
@@ -603,689 +570,690 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>449589.02060163743</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>192153.89529653924</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>450682.77035305911</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>191683.95546855486</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>446810.80555581505</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>198555.66535650584</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>449275.95431864134</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>197214.00039429561</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>449559.8156746091</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>197341.90121284354</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>448271.60435733286</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>196470.05956431967</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>450113.34868458344</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>197922.4047943698</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>449435.61037552857</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>198613.07986904308</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>446509.47323589108</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>198584.19067354136</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>451123.79917847808</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>191748.71205794549</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>451096.42694996705</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>194941.80665844516</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>452449.90634688345</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>196438.71982141995</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>450174.73769010603</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>194386.19217482142</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>448390.45006334427</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>200016.95005905459</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>446837.8959859279</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>196446.49581440722</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>450979.89892823796</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>196497.55494383749</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>451950.54571400513</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>193806.97320725219</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>454660.94520497473</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>195041.25771678571</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>454673.81183904386</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>195022.78279274632</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>450572.85801704624</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>191262.64288113575</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>450505.8168828832</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>192843.83028583639</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>450188.82808023971</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>193049.78564784705</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>450810.71388171031</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>193548.72116554619</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>450777.62885163876</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>193367.96129536803</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>448916.98432201159</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>195029.83714294469</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>450922.69493696734</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>192366.58664622705</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>451401.37156100839</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>193323.61720687166</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>449942.30958308541</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>192618.00731788116</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>449784.21733117074</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>192765.62061035816</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>448340.84626593388</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>197678.45539424755</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>446758.12383220199</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>197106.73359730336</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>446803.35620958282</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>197467.78035014187</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>448617.68368471717</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>197319.41863129134</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>449325.37088064768</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>196379.13025942043</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>449605.87048246455</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>196420.27838758938</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>447780.97631386499</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>197311.84857040737</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>447933.23578027717</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>199631.65619177182</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>450241.07294356037</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>196854.22867722224</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>448429.62256840925</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>196042.04675139548</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>448833.3350728486</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>196250.30368919627</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>448126.60225181637</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>196493.65635585634</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>448263.23588727828</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>196766.8369123397</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>448136.00676613755</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>196737.91486849033</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>448067.36641913728</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>196887.36007269644</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>447824.63141638209</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>200654.07112748848</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>448989.77613216394</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="1">
         <v>199351.24306686167</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>448896.01923966967</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="1">
         <v>200227.95470496049</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>448324.16899011645</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="1">
         <v>196943.85674728727</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>449638.87482147408</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="1">
         <v>198726.03831740344</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>451744.66553367965</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="1">
         <v>196873.44637080302</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>449768.85982192477</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="1">
         <v>196546.33969412692</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>448828.59122567688</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="1">
         <v>194933.68297062872</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>451419.18822128372</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="1">
         <v>197203.94155773497</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>453090.63600308937</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="1">
         <v>190921.02387965357</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>450732.08138230653</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>191169.24008388614</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>449172.22053300531</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="1">
         <v>195160.87657673209</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>451704.59894903295</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="1">
         <v>191759.94285747831</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>450927.64322215022</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="1">
         <v>191299.28250975267</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>450378.66922665882</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="1">
         <v>195523.47122187819</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>455766.70828546089</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="1">
         <v>195491.87992080755</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>450586.36682176561</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="1">
         <v>194649.27727998109</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.7">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>449122.60822880565</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="1">
         <v>195575.84919381965</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <autoFilter ref="A1:C63" xr:uid="{CBB5EDF7-70D7-4A80-8D8E-DCAF5702C150}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>